--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0003055483180743902</v>
+        <v>0.0005218258899696973</v>
       </c>
       <c r="E2">
-        <v>0.0003055483180743902</v>
+        <v>0.0005218258899696973</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999995685768095</v>
+        <v>0.8345719029840536</v>
       </c>
       <c r="E3">
-        <v>0.9999995685768095</v>
+        <v>0.8345719029840536</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.002737073295619112</v>
+        <v>0.09030762985731447</v>
       </c>
       <c r="E4">
-        <v>0.002737073295619112</v>
+        <v>0.09030762985731447</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4.058907597128032E-27</v>
+        <v>2.449656223581634E-28</v>
       </c>
       <c r="E5">
-        <v>4.058907597128032E-27</v>
+        <v>2.449656223581634E-28</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.02317972835095671</v>
+        <v>0.02053818783066794</v>
       </c>
       <c r="E6">
-        <v>0.02317972835095671</v>
+        <v>0.02053818783066794</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.125277123388384E-05</v>
+        <v>0.01813808071342189</v>
       </c>
       <c r="E7">
-        <v>0.9999587472287661</v>
+        <v>0.9818619192865781</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999747270687</v>
+        <v>0.9999999298597084</v>
       </c>
       <c r="E8">
-        <v>2.527293130327735E-08</v>
+        <v>7.014029157481616E-08</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.02517775940686293</v>
+        <v>0.8684868988084139</v>
       </c>
       <c r="E9">
-        <v>0.974822240593137</v>
+        <v>0.1315131011915861</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.016153646772396E-11</v>
+        <v>3.23550698390391E-14</v>
       </c>
       <c r="E10">
-        <v>0.9999999999898385</v>
+        <v>0.9999999999999677</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9862857830723553</v>
+        <v>0.9998534121677101</v>
       </c>
       <c r="E11">
-        <v>0.01371421692764474</v>
+        <v>0.000146587832289935</v>
       </c>
       <c r="F11">
-        <v>5.378648281097412</v>
+        <v>3.712804079055786</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
